--- a/ChangeDoc/Change Document WB-Comenzo.xlsx
+++ b/ChangeDoc/Change Document WB-Comenzo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SL No.</t>
   </si>
@@ -59,12 +59,18 @@
   <si>
     <t>1.DB status check for hana DB had to be written.
 2.DB status check for db2 DB had to be written.
-3.When changing the commands to execute using "sudo bash", the quotes were mismatched.</t>
+3.When changing the commands to execute using "sudo bash", an extra "/" after "'"</t>
   </si>
   <si>
     <t>1.For Hana DB, the "sapcontrol" command is run with the function "GetProcessList" to check the status of the hana db and output is printed based on the output of the command.
 2.For DB2 DB, we check if "db2sysc" process is running, if it is running it means that the DB is up. The output is printed based on the output of the command.
-3.The quotes were fixed.</t>
+3.The "/" is removed.</t>
+  </si>
+  <si>
+    <t>Applicable</t>
+  </si>
+  <si>
+    <t>Generic/Enhancement(1,2)/Error(3)</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:K16"/>
+  <dimension ref="E4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,10 +512,11 @@
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="51.90625" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,8 +538,11 @@
       <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="5:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="E6" s="8">
         <v>1</v>
       </c>
@@ -554,8 +564,11 @@
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -563,8 +576,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -572,8 +586,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -581,8 +596,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -590,8 +606,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -599,8 +616,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -608,8 +626,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -617,8 +636,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -626,8 +646,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -635,8 +656,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -644,6 +666,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
